--- a/Document/詳細設計書/Table定義書.xlsx
+++ b/Document/詳細設計書/Table定義書.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/945ad830e40d5886/文档/2021春季毕设文件夹/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\CourseManagementSystem-1\Document\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4DA82427541F7ACA7EB8D2A08F0E386AE8DE14" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5515B76F-DE49-4E9E-A6EC-17712C0256CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73909BD-1036-47CE-98D3-D3B0E94675C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1875" windowWidth="24825" windowHeight="11955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-225" yWindow="1725" windowWidth="21600" windowHeight="11505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="admin" sheetId="3" r:id="rId2"/>
     <sheet name="student" sheetId="4" r:id="rId3"/>
     <sheet name="Template" sheetId="2" r:id="rId4"/>
+    <sheet name="token" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +140,30 @@
   </si>
   <si>
     <t>未确定，应是定长Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接其他表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FAC8C-2742-4BF2-91D2-F30B1C9E787D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1089,4 +1114,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6428C651-B23C-485A-9308-AECF5D8590D4}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/詳細設計書/Table定義書.xlsx
+++ b/Document/詳細設計書/Table定義書.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\CourseManagementSystem-1\Document\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73909BD-1036-47CE-98D3-D3B0E94675C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A231CE-7D14-4BA0-ABA6-9713BBD93AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="1725" windowWidth="21600" windowHeight="11505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
-    <sheet name="admin" sheetId="3" r:id="rId2"/>
-    <sheet name="student" sheetId="4" r:id="rId3"/>
-    <sheet name="Template" sheetId="2" r:id="rId4"/>
-    <sheet name="token" sheetId="5" r:id="rId5"/>
+    <sheet name="Template" sheetId="2" r:id="rId2"/>
+    <sheet name="admin" sheetId="3" r:id="rId3"/>
+    <sheet name="student" sheetId="4" r:id="rId4"/>
+    <sheet name="teacher" sheetId="6" r:id="rId5"/>
+    <sheet name="token" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,18 +132,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未确定，应是定长Hash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,11 +152,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连接其他表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接表名</t>
+    <t>備考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not actually used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>未</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sarasa UI J"/>
+        <charset val="128"/>
+      </rPr>
+      <t>定，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sarasa UI J"/>
+        <charset val="128"/>
+      </rPr>
+      <t>是定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sarasa UI J"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Hash</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>授</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sarasa UI J"/>
+        <charset val="128"/>
+      </rPr>
+      <t>起始日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>授</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>权终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sarasa UI J"/>
+        <charset val="128"/>
+      </rPr>
+      <t>止日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不作约束，在前端限制条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sarasa UI J"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接其他表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sarasa UI J"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接表名</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,21 +362,29 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Sarasa UI J"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sarasa UI J"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sarasa UI J"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -225,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,43 +434,56 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,393 +764,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="4.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E0E07-CC40-40B0-A9A7-7D618D693A30}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FAC8C-2742-4BF2-91D2-F30B1C9E787D}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="7" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>27</v>
-      </c>
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ACC906-76EE-44F9-A868-F712C9A38B05}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E0E07-CC40-40B0-A9A7-7D618D693A30}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="4.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -964,335 +1163,570 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822FAC8C-2742-4BF2-91D2-F30B1C9E787D}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ACC906-76EE-44F9-A868-F712C9A38B05}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="4.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J8:J9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAF42DA-A0F8-4DF2-80A7-AAEE87F8B18F}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="4.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6428C651-B23C-485A-9308-AECF5D8590D4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="4.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/詳細設計書/Table定義書.xlsx
+++ b/Document/詳細設計書/Table定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\CourseManagementSystem-1\Document\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A231CE-7D14-4BA0-ABA6-9713BBD93AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE97DB62-3812-4C36-80E0-DBB8690A805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="1860" windowWidth="21600" windowHeight="11505" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="admin" sheetId="3" r:id="rId3"/>
     <sheet name="student" sheetId="4" r:id="rId4"/>
     <sheet name="teacher" sheetId="6" r:id="rId5"/>
-    <sheet name="token" sheetId="5" r:id="rId6"/>
+    <sheet name="records" sheetId="7" r:id="rId6"/>
+    <sheet name="token" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,7 +205,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Sarasa UI J"/>
-        <charset val="128"/>
       </rPr>
       <t>定，</t>
     </r>
@@ -222,7 +222,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Sarasa UI J"/>
-        <charset val="128"/>
       </rPr>
       <t>是定</t>
     </r>
@@ -240,7 +239,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Sarasa UI J"/>
-        <charset val="128"/>
       </rPr>
       <t>Hash</t>
     </r>
@@ -264,7 +262,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Sarasa UI J"/>
-        <charset val="128"/>
       </rPr>
       <t>起始日</t>
     </r>
@@ -288,7 +285,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Sarasa UI J"/>
-        <charset val="128"/>
       </rPr>
       <t>止日</t>
     </r>
@@ -313,7 +309,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Sarasa UI J"/>
-        <charset val="128"/>
       </rPr>
       <t>接其他表</t>
     </r>
@@ -334,10 +329,65 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Sarasa UI J"/>
-        <charset val="128"/>
       </rPr>
       <t>接表名</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <t>w7</t>
+  </si>
+  <si>
+    <t>w8</t>
+  </si>
+  <si>
+    <t>w9</t>
+  </si>
+  <si>
+    <t>w10</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>records</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,7 +415,23 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Sarasa UI J"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sarasa UI J"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sarasa UI J"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -374,17 +440,26 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Sarasa UI J"/>
-      <charset val="128"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -456,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -480,10 +555,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -884,7 +963,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E0E07-CC40-40B0-A9A7-7D618D693A30}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +1380,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1322,7 +1401,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="13"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -1488,15 +1567,15 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
@@ -1549,6 +1628,304 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A4E614-0F1E-4733-B126-74253D320104}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="13.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>12</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6428C651-B23C-485A-9308-AECF5D8590D4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
